--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Hungary_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Hungary_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G387"/>
+  <dimension ref="A1:G389"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9386,16 +9386,16 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>30734400000000</v>
+        <v>30734900000000</v>
       </c>
       <c r="D358" t="n">
-        <v>30734400000000</v>
+        <v>30734900000000</v>
       </c>
       <c r="E358" t="n">
-        <v>30734400000000</v>
+        <v>30734900000000</v>
       </c>
       <c r="F358" t="n">
-        <v>30734400000000</v>
+        <v>30734900000000</v>
       </c>
       <c r="G358" t="n">
         <v>0</v>
@@ -9411,16 +9411,16 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>31321900000000</v>
+        <v>31322400000000</v>
       </c>
       <c r="D359" t="n">
-        <v>31321900000000</v>
+        <v>31322400000000</v>
       </c>
       <c r="E359" t="n">
-        <v>31321900000000</v>
+        <v>31322400000000</v>
       </c>
       <c r="F359" t="n">
-        <v>31321900000000</v>
+        <v>31322400000000</v>
       </c>
       <c r="G359" t="n">
         <v>0</v>
@@ -9461,16 +9461,16 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>33441400000000</v>
+        <v>33495800000000</v>
       </c>
       <c r="D361" t="n">
-        <v>33441400000000</v>
+        <v>33495800000000</v>
       </c>
       <c r="E361" t="n">
-        <v>33441400000000</v>
+        <v>33495800000000</v>
       </c>
       <c r="F361" t="n">
-        <v>33441400000000</v>
+        <v>33495800000000</v>
       </c>
       <c r="G361" t="n">
         <v>0</v>
@@ -9486,16 +9486,16 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>32933800000000</v>
+        <v>32988400000000</v>
       </c>
       <c r="D362" t="n">
-        <v>32933800000000</v>
+        <v>32988400000000</v>
       </c>
       <c r="E362" t="n">
-        <v>32933800000000</v>
+        <v>32988400000000</v>
       </c>
       <c r="F362" t="n">
-        <v>32933800000000</v>
+        <v>32988400000000</v>
       </c>
       <c r="G362" t="n">
         <v>0</v>
@@ -9511,16 +9511,16 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>33517200000000</v>
+        <v>33552400000000</v>
       </c>
       <c r="D363" t="n">
-        <v>33517200000000</v>
+        <v>33552400000000</v>
       </c>
       <c r="E363" t="n">
-        <v>33517200000000</v>
+        <v>33552400000000</v>
       </c>
       <c r="F363" t="n">
-        <v>33517200000000</v>
+        <v>33552400000000</v>
       </c>
       <c r="G363" t="n">
         <v>0</v>
@@ -9536,16 +9536,16 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>33939900000000</v>
+        <v>33970200000000</v>
       </c>
       <c r="D364" t="n">
-        <v>33939900000000</v>
+        <v>33970200000000</v>
       </c>
       <c r="E364" t="n">
-        <v>33939900000000</v>
+        <v>33970200000000</v>
       </c>
       <c r="F364" t="n">
-        <v>33939900000000</v>
+        <v>33970200000000</v>
       </c>
       <c r="G364" t="n">
         <v>0</v>
@@ -9561,16 +9561,16 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>33869100000000</v>
+        <v>33881500000000</v>
       </c>
       <c r="D365" t="n">
-        <v>33869100000000</v>
+        <v>33881500000000</v>
       </c>
       <c r="E365" t="n">
-        <v>33869100000000</v>
+        <v>33881500000000</v>
       </c>
       <c r="F365" t="n">
-        <v>33869100000000</v>
+        <v>33881500000000</v>
       </c>
       <c r="G365" t="n">
         <v>0</v>
@@ -9586,16 +9586,16 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>33790400000000</v>
+        <v>33795100000000</v>
       </c>
       <c r="D366" t="n">
-        <v>33790400000000</v>
+        <v>33795100000000</v>
       </c>
       <c r="E366" t="n">
-        <v>33790400000000</v>
+        <v>33795100000000</v>
       </c>
       <c r="F366" t="n">
-        <v>33790400000000</v>
+        <v>33795100000000</v>
       </c>
       <c r="G366" t="n">
         <v>0</v>
@@ -9611,16 +9611,16 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>34168400000000</v>
+        <v>34176400000000</v>
       </c>
       <c r="D367" t="n">
-        <v>34168400000000</v>
+        <v>34176400000000</v>
       </c>
       <c r="E367" t="n">
-        <v>34168400000000</v>
+        <v>34176400000000</v>
       </c>
       <c r="F367" t="n">
-        <v>34168400000000</v>
+        <v>34176400000000</v>
       </c>
       <c r="G367" t="n">
         <v>0</v>
@@ -9636,16 +9636,16 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>34630500000000</v>
+        <v>34635200000000</v>
       </c>
       <c r="D368" t="n">
-        <v>34630500000000</v>
+        <v>34635200000000</v>
       </c>
       <c r="E368" t="n">
-        <v>34630500000000</v>
+        <v>34635200000000</v>
       </c>
       <c r="F368" t="n">
-        <v>34630500000000</v>
+        <v>34635200000000</v>
       </c>
       <c r="G368" t="n">
         <v>0</v>
@@ -9661,16 +9661,16 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>35077400000000</v>
+        <v>34976400000000</v>
       </c>
       <c r="D369" t="n">
-        <v>35077400000000</v>
+        <v>34976400000000</v>
       </c>
       <c r="E369" t="n">
-        <v>35077400000000</v>
+        <v>34976400000000</v>
       </c>
       <c r="F369" t="n">
-        <v>35077400000000</v>
+        <v>34976400000000</v>
       </c>
       <c r="G369" t="n">
         <v>0</v>
@@ -9686,16 +9686,16 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>35488100000000</v>
+        <v>35509700000000</v>
       </c>
       <c r="D370" t="n">
-        <v>35488100000000</v>
+        <v>35509700000000</v>
       </c>
       <c r="E370" t="n">
-        <v>35488100000000</v>
+        <v>35509700000000</v>
       </c>
       <c r="F370" t="n">
-        <v>35488100000000</v>
+        <v>35509700000000</v>
       </c>
       <c r="G370" t="n">
         <v>0</v>
@@ -9711,16 +9711,16 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>36347400000000</v>
+        <v>36350700000000</v>
       </c>
       <c r="D371" t="n">
-        <v>36347400000000</v>
+        <v>36350700000000</v>
       </c>
       <c r="E371" t="n">
-        <v>36347400000000</v>
+        <v>36350700000000</v>
       </c>
       <c r="F371" t="n">
-        <v>36347400000000</v>
+        <v>36350700000000</v>
       </c>
       <c r="G371" t="n">
         <v>0</v>
@@ -9736,16 +9736,16 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>37648600000000</v>
+        <v>37653400000000</v>
       </c>
       <c r="D372" t="n">
-        <v>37648600000000</v>
+        <v>37653400000000</v>
       </c>
       <c r="E372" t="n">
-        <v>37648600000000</v>
+        <v>37653400000000</v>
       </c>
       <c r="F372" t="n">
-        <v>37648600000000</v>
+        <v>37653400000000</v>
       </c>
       <c r="G372" t="n">
         <v>0</v>
@@ -9761,16 +9761,16 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>38870700000000</v>
+        <v>38869800000000</v>
       </c>
       <c r="D373" t="n">
-        <v>38870700000000</v>
+        <v>38869800000000</v>
       </c>
       <c r="E373" t="n">
-        <v>38870700000000</v>
+        <v>38869800000000</v>
       </c>
       <c r="F373" t="n">
-        <v>38870700000000</v>
+        <v>38869800000000</v>
       </c>
       <c r="G373" t="n">
         <v>0</v>
@@ -9811,16 +9811,16 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>39342800000000</v>
+        <v>39527800000000</v>
       </c>
       <c r="D375" t="n">
-        <v>39342800000000</v>
+        <v>39527800000000</v>
       </c>
       <c r="E375" t="n">
-        <v>39342800000000</v>
+        <v>39527800000000</v>
       </c>
       <c r="F375" t="n">
-        <v>39342800000000</v>
+        <v>39527800000000</v>
       </c>
       <c r="G375" t="n">
         <v>0</v>
@@ -9836,16 +9836,16 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>39601600000000</v>
+        <v>39600300000000</v>
       </c>
       <c r="D376" t="n">
-        <v>39601600000000</v>
+        <v>39600300000000</v>
       </c>
       <c r="E376" t="n">
-        <v>39601600000000</v>
+        <v>39600300000000</v>
       </c>
       <c r="F376" t="n">
-        <v>39601600000000</v>
+        <v>39600300000000</v>
       </c>
       <c r="G376" t="n">
         <v>0</v>
@@ -9861,16 +9861,16 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>39873600000000</v>
+        <v>39874100000000</v>
       </c>
       <c r="D377" t="n">
-        <v>39873600000000</v>
+        <v>39874100000000</v>
       </c>
       <c r="E377" t="n">
-        <v>39873600000000</v>
+        <v>39874100000000</v>
       </c>
       <c r="F377" t="n">
-        <v>39873600000000</v>
+        <v>39874100000000</v>
       </c>
       <c r="G377" t="n">
         <v>0</v>
@@ -9936,16 +9936,16 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>41202900000000</v>
+        <v>41209500000000</v>
       </c>
       <c r="D380" t="n">
-        <v>41202900000000</v>
+        <v>41209500000000</v>
       </c>
       <c r="E380" t="n">
-        <v>41202900000000</v>
+        <v>41209500000000</v>
       </c>
       <c r="F380" t="n">
-        <v>41202900000000</v>
+        <v>41209500000000</v>
       </c>
       <c r="G380" t="n">
         <v>0</v>
@@ -9961,16 +9961,16 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>42036000000000</v>
+        <v>42040500000000</v>
       </c>
       <c r="D381" t="n">
-        <v>42036000000000</v>
+        <v>42040500000000</v>
       </c>
       <c r="E381" t="n">
-        <v>42036000000000</v>
+        <v>42040500000000</v>
       </c>
       <c r="F381" t="n">
-        <v>42036000000000</v>
+        <v>42040500000000</v>
       </c>
       <c r="G381" t="n">
         <v>0</v>
@@ -9986,16 +9986,16 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>42244900000000</v>
+        <v>41918300000000</v>
       </c>
       <c r="D382" t="n">
-        <v>42244900000000</v>
+        <v>41918300000000</v>
       </c>
       <c r="E382" t="n">
-        <v>42244900000000</v>
+        <v>41918300000000</v>
       </c>
       <c r="F382" t="n">
-        <v>42244900000000</v>
+        <v>41918300000000</v>
       </c>
       <c r="G382" t="n">
         <v>0</v>
@@ -10111,18 +10111,68 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>40522300000000</v>
+        <v>40513200000000</v>
       </c>
       <c r="D387" t="n">
-        <v>40522300000000</v>
+        <v>40513200000000</v>
       </c>
       <c r="E387" t="n">
-        <v>40522300000000</v>
+        <v>40513200000000</v>
       </c>
       <c r="F387" t="n">
-        <v>40522300000000</v>
+        <v>40513200000000</v>
       </c>
       <c r="G387" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="2" t="n">
+        <v>44986.45833333334</v>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>ECONOMICS:HUM2</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>40410200000000</v>
+      </c>
+      <c r="D388" t="n">
+        <v>40410200000000</v>
+      </c>
+      <c r="E388" t="n">
+        <v>40410200000000</v>
+      </c>
+      <c r="F388" t="n">
+        <v>40410200000000</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>ECONOMICS:HUM2</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>39781400000000</v>
+      </c>
+      <c r="D389" t="n">
+        <v>39781400000000</v>
+      </c>
+      <c r="E389" t="n">
+        <v>39781400000000</v>
+      </c>
+      <c r="F389" t="n">
+        <v>39781400000000</v>
+      </c>
+      <c r="G389" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Hungary_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Hungary_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G389"/>
+  <dimension ref="A1:G390"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10176,6 +10176,31 @@
         <v>0</v>
       </c>
     </row>
+    <row r="390">
+      <c r="A390" s="2" t="n">
+        <v>45047.41666666666</v>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>ECONOMICS:HUM2</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>39629500000000</v>
+      </c>
+      <c r="D390" t="n">
+        <v>39629500000000</v>
+      </c>
+      <c r="E390" t="n">
+        <v>39629500000000</v>
+      </c>
+      <c r="F390" t="n">
+        <v>39629500000000</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Hungary_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Hungary_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G390"/>
+  <dimension ref="A1:G391"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,7 +553,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>33329.41666666666</v>
+        <v>33329.45833333334</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>33664.41666666666</v>
+        <v>33664.45833333334</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>33695.41666666666</v>
+        <v>33695.45833333334</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>34060.41666666666</v>
+        <v>34060.45833333334</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>34425.41666666666</v>
+        <v>34425.45833333334</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>34790.41666666666</v>
+        <v>34790.45833333334</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>34973.41666666666</v>
+        <v>34973.45833333334</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>35156.41666666666</v>
+        <v>35156.45833333334</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>35521.41666666666</v>
+        <v>35521.45833333334</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>35886.41666666666</v>
+        <v>35886.45833333334</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>36251.41666666666</v>
+        <v>36251.45833333334</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>36617.41666666666</v>
+        <v>36617.45833333334</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>36770.45833333334</v>
+        <v>36770.41666666666</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>37347.41666666666</v>
+        <v>37347.45833333334</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>37712.41666666666</v>
+        <v>37712.45833333334</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>38078.41666666666</v>
+        <v>38078.45833333334</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>38443.41666666666</v>
+        <v>38443.45833333334</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>38991.41666666666</v>
+        <v>38991.45833333334</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -10186,18 +10186,43 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>39629500000000</v>
+        <v>39608000000000</v>
       </c>
       <c r="D390" t="n">
-        <v>39629500000000</v>
+        <v>39608000000000</v>
       </c>
       <c r="E390" t="n">
-        <v>39629500000000</v>
+        <v>39608000000000</v>
       </c>
       <c r="F390" t="n">
-        <v>39629500000000</v>
+        <v>39608000000000</v>
       </c>
       <c r="G390" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="2" t="n">
+        <v>45078.41666666666</v>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>ECONOMICS:HUM2</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>38717200000000</v>
+      </c>
+      <c r="D391" t="n">
+        <v>38717200000000</v>
+      </c>
+      <c r="E391" t="n">
+        <v>38717200000000</v>
+      </c>
+      <c r="F391" t="n">
+        <v>38717200000000</v>
+      </c>
+      <c r="G391" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Hungary_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Hungary_M2.xlsx
@@ -553,7 +553,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>33329.45833333334</v>
+        <v>33329.41666666666</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>33664.45833333334</v>
+        <v>33664.41666666666</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>33695.45833333334</v>
+        <v>33695.41666666666</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>34060.45833333334</v>
+        <v>34060.41666666666</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>34425.45833333334</v>
+        <v>34425.41666666666</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>34790.45833333334</v>
+        <v>34790.41666666666</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>34973.45833333334</v>
+        <v>34973.41666666666</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>35156.45833333334</v>
+        <v>35156.41666666666</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>35521.45833333334</v>
+        <v>35521.41666666666</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>35886.45833333334</v>
+        <v>35886.41666666666</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>36251.45833333334</v>
+        <v>36251.41666666666</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>36617.45833333334</v>
+        <v>36617.41666666666</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>36770.41666666666</v>
+        <v>36770.45833333334</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>37347.45833333334</v>
+        <v>37347.41666666666</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>37712.45833333334</v>
+        <v>37712.41666666666</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>38078.45833333334</v>
+        <v>38078.41666666666</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>38443.45833333334</v>
+        <v>38443.41666666666</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>38991.45833333334</v>
+        <v>38991.41666666666</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Hungary_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Hungary_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G391"/>
+  <dimension ref="A1:G394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10226,6 +10226,81 @@
         <v>0</v>
       </c>
     </row>
+    <row r="392">
+      <c r="A392" s="2" t="n">
+        <v>45108.41666666666</v>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>ECONOMICS:HUM2</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>39349600000000</v>
+      </c>
+      <c r="D392" t="n">
+        <v>39349600000000</v>
+      </c>
+      <c r="E392" t="n">
+        <v>39349600000000</v>
+      </c>
+      <c r="F392" t="n">
+        <v>39349600000000</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="2" t="n">
+        <v>45139.41666666666</v>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>ECONOMICS:HUM2</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>39443500000000</v>
+      </c>
+      <c r="D393" t="n">
+        <v>39443500000000</v>
+      </c>
+      <c r="E393" t="n">
+        <v>39443500000000</v>
+      </c>
+      <c r="F393" t="n">
+        <v>39443500000000</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="2" t="n">
+        <v>45170.41666666666</v>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>ECONOMICS:HUM2</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>39673600000000</v>
+      </c>
+      <c r="D394" t="n">
+        <v>39673600000000</v>
+      </c>
+      <c r="E394" t="n">
+        <v>39673600000000</v>
+      </c>
+      <c r="F394" t="n">
+        <v>39673600000000</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
